--- a/Doc/自定义控制协议/自主控制协议.xlsx
+++ b/Doc/自定义控制协议/自主控制协议.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\ANO_Quadcopter_2021TI\Doc\自定义控制协议\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GITHUB_PROJECT\ANO_Quadcopter_2021TI\Doc\自定义控制协议\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42437F8-1328-49CD-8486-817E78297D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3139FCFF-7547-460D-9D82-EB3B44191399}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="功能号" sheetId="2" r:id="rId2"/>
+    <sheet name="0xa0" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="105">
   <si>
     <t>帧头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,90 +131,303 @@
     <t>0x82</t>
   </si>
   <si>
+    <t>0x87</t>
+  </si>
+  <si>
+    <t>0x88</t>
+  </si>
+  <si>
+    <t>0x91</t>
+  </si>
+  <si>
+    <t>0x92</t>
+  </si>
+  <si>
+    <t>0x93</t>
+  </si>
+  <si>
+    <t>0x94</t>
+  </si>
+  <si>
+    <t>0x95</t>
+  </si>
+  <si>
+    <t>0x96</t>
+  </si>
+  <si>
+    <t>0x97</t>
+  </si>
+  <si>
+    <t>0x98</t>
+  </si>
+  <si>
+    <t>0x80（基础控制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x90（机器视觉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆周运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：顺时针 1：逆时针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半径（cm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度（°/s）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：左侧 1：右侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度（0~361°）</t>
+  </si>
+  <si>
+    <t>目标设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞控TM4C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据TM4C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenMV-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x65</t>
+  </si>
+  <si>
+    <t>OpenMV-1</t>
+  </si>
+  <si>
+    <t>OpenMV-2</t>
+  </si>
+  <si>
+    <t>0x66</t>
+  </si>
+  <si>
+    <t>0x67</t>
+  </si>
+  <si>
+    <t>0x68</t>
+  </si>
+  <si>
+    <t>0x69</t>
+  </si>
+  <si>
+    <t>0x70</t>
+  </si>
+  <si>
+    <t>0x71</t>
+  </si>
+  <si>
+    <t>K210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串口屏4.7寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jetson Nano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0x83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0x84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0x85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0x86</t>
-  </si>
-  <si>
-    <t>0x87</t>
-  </si>
-  <si>
-    <t>0x88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0x89</t>
-  </si>
-  <si>
-    <t>0x91</t>
-  </si>
-  <si>
-    <t>0x92</t>
-  </si>
-  <si>
-    <t>0x93</t>
-  </si>
-  <si>
-    <t>0x94</t>
-  </si>
-  <si>
-    <t>0x95</t>
-  </si>
-  <si>
-    <t>0x96</t>
-  </si>
-  <si>
-    <t>0x97</t>
-  </si>
-  <si>
-    <t>0x98</t>
-  </si>
-  <si>
-    <t>0x99</t>
-  </si>
-  <si>
-    <t>0x80（基础控制）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x90（机器视觉）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆周运动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：顺时针 1：逆时针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半径（cm）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度（°/s）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：左侧 1：右侧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角度（0~361°）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xa0（参数控制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据打包发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串口屏与数据中心发送数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细解释链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(minL, maxL, minA, maxA, minB, maxB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xa0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenMV：minL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenMV：maxL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenMV：minA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenMV：maxA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenMV：minB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenMV：maxB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenMV：色彩阈值6*8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞控：PID3*16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求打包数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞控：P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞控：I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞控：D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xa0'!A2</t>
+  </si>
+  <si>
+    <t>0xa2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xa3</t>
+  </si>
+  <si>
+    <t>0xa4</t>
+  </si>
+  <si>
+    <t>0xa5</t>
+  </si>
+  <si>
+    <t>PID设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PID请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenMV数据请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenMV设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定OpenMV色彩阈值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求OpenMV色彩阈值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定PID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求PID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,16 +442,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -244,11 +473,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -256,15 +535,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A40" sqref="A19:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -553,258 +875,825 @@
     <col min="1" max="16384" width="20.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="4" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="F22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="29" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="32" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="35" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="36" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="38" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
+    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+    </row>
+    <row r="51" spans="1:1" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+    </row>
+    <row r="52" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE5C0F1-A13E-4A07-9820-2FCF0A9E63D4}">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="30" width="30.77734375" style="13" customWidth="1"/>
+    <col min="31" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" s="18"/>
+    </row>
+    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="13">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C22" location="'0xa0'!A2" display="'0xa0'!A2" xr:uid="{9C16A3BC-2459-4D04-9BB3-51627005E9EC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9229444-826F-49BB-9AA3-8F29AEE63D00}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="23" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Doc/自定义控制协议/自主控制协议.xlsx
+++ b/Doc/自定义控制协议/自主控制协议.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GITHUB_PROJECT\ANO_Quadcopter_2021TI\Doc\自定义控制协议\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\ANO_Quadcopter_2021TI\Doc\自定义控制协议\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3139FCFF-7547-460D-9D82-EB3B44191399}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2F5EEA-907A-4861-9A11-99593690DAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="114">
   <si>
     <t>帧头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,6 +420,39 @@
   </si>
   <si>
     <t>请求PID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自T265相机的视觉slam位姿信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x轴速度 cm/s</t>
+  </si>
+  <si>
+    <t>y轴速度 cm/s</t>
+  </si>
+  <si>
+    <t>z轴速度 cm/s</t>
+  </si>
+  <si>
+    <t>x轴坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y轴坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z轴坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-SLAM（起飞点为原点）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小端字节序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +460,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,8 +483,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,6 +502,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -571,6 +618,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -578,10 +631,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -870,12 +929,12 @@
       <selection activeCell="A40" sqref="A19:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="20.77734375" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -898,7 +957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -906,13 +965,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
@@ -920,7 +979,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -928,7 +987,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
@@ -936,7 +995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -944,7 +1003,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -952,7 +1011,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -960,7 +1019,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
@@ -968,7 +1027,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -976,7 +1035,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -984,18 +1043,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="8" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +1095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -1046,28 +1105,28 @@
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15" t="s">
+      <c r="H20" s="17"/>
+      <c r="I20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15" t="s">
+      <c r="J20" s="17"/>
+      <c r="K20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15" t="s">
+      <c r="L20" s="17"/>
+      <c r="M20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="15"/>
-    </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1081,7 +1140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -1103,47 +1162,47 @@
       <c r="H22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
@@ -1160,52 +1219,52 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>71</v>
       </c>
@@ -1216,42 +1275,42 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
     </row>
-    <row r="43" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" s="8" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="M20:N20"/>
@@ -1269,392 +1328,452 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE5C0F1-A13E-4A07-9820-2FCF0A9E63D4}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="30" width="30.77734375" style="13" customWidth="1"/>
-    <col min="31" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="30" width="30.75" style="13" customWidth="1"/>
+    <col min="31" max="16384" width="8.9140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="22"/>
+    </row>
+    <row r="2" spans="1:16" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="3" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18" t="s">
+      <c r="L3" s="19"/>
+      <c r="M3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="18"/>
-    </row>
-    <row r="3" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="N3" s="19"/>
+    </row>
+    <row r="4" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="7" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="8" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="9" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="B14" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="21"/>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="17" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="18" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="19" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="20" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="21" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="22" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="23" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B23" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D23" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F23" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G23" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H23" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I23" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J23" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K23" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="18" t="s">
+      <c r="L23" s="20"/>
+      <c r="M23" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18" t="s">
+      <c r="N23" s="19"/>
+      <c r="O23" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="P22" s="18"/>
-    </row>
-    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="P23" s="19"/>
+    </row>
+    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B24" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E24" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B25" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F25" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G25" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H25" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I25" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J25" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B26" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E26" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B27" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E27" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18" t="s">
+      <c r="F27" s="20"/>
+      <c r="G27" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18" t="s">
+      <c r="H27" s="19"/>
+      <c r="I27" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B28" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
+  <mergeCells count="19">
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C22" location="'0xa0'!A2" display="'0xa0'!A2" xr:uid="{9C16A3BC-2459-4D04-9BB3-51627005E9EC}"/>
+    <hyperlink ref="C23" location="'0xa0'!A2" display="'0xa0'!A2" xr:uid="{9C16A3BC-2459-4D04-9BB3-51627005E9EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1666,14 +1785,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" customWidth="1"/>
-    <col min="3" max="23" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="23" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -1681,7 +1800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>

--- a/Doc/自定义控制协议/自主控制协议.xlsx
+++ b/Doc/自定义控制协议/自主控制协议.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GITHUB_PROJECT\ANO_Quadcopter_2021TI\Doc\自定义控制协议\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\ANO_Quadcopter_2021TI\Doc\自定义控制协议\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7D91E2-61ED-4111-AE77-F5FA1C76E843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BEA6EA-1DD3-4318-8987-C299D2E125F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="116">
   <si>
     <t>帧头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,6 +431,38 @@
   </si>
   <si>
     <t>返回请求的色彩阈值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-SLAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T265的位姿数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x轴速度 cm/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y轴速度 cm/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z轴速度 cm/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x轴坐标 cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y轴坐标 cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z轴坐标 cm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -596,6 +628,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -884,12 +919,12 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="20.77734375" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -912,7 +947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -920,13 +955,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
@@ -934,7 +969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -942,7 +977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
@@ -950,7 +985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -958,7 +993,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -966,7 +1001,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -974,7 +1009,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
@@ -982,7 +1017,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -990,7 +1025,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -998,18 +1033,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="8" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -1050,7 +1085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -1081,7 +1116,7 @@
       </c>
       <c r="N20" s="16"/>
     </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1095,7 +1130,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -1122,42 +1157,42 @@
       </c>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
@@ -1174,52 +1209,52 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>71</v>
       </c>
@@ -1230,42 +1265,42 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
     </row>
-    <row r="43" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" s="8" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="M20:N20"/>
@@ -1285,17 +1320,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE5C0F1-A13E-4A07-9820-2FCF0A9E63D4}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:J26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="30" width="30.77734375" style="13" customWidth="1"/>
-    <col min="31" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="30" width="30.75" style="13" customWidth="1"/>
+    <col min="31" max="16384" width="8.9140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1339,7 +1374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -1370,7 +1405,7 @@
       </c>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -1384,7 +1419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
@@ -1411,42 +1446,42 @@
       </c>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>37</v>
       </c>
@@ -1463,47 +1498,77 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>69</v>
       </c>
@@ -1511,7 +1576,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>71</v>
       </c>
@@ -1555,7 +1620,7 @@
       </c>
       <c r="P22" s="18"/>
     </row>
-    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>88</v>
       </c>
@@ -1569,7 +1634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>93</v>
       </c>
@@ -1598,7 +1663,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>94</v>
       </c>
@@ -1612,7 +1677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>95</v>
       </c>
@@ -1641,7 +1706,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>96</v>
       </c>
@@ -1664,7 +1729,7 @@
       </c>
       <c r="J27" s="18"/>
     </row>
-    <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>105</v>
       </c>
@@ -1679,7 +1744,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:N22"/>
@@ -1692,13 +1759,17 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C22" location="'0xa0'!A2" display="'0xa0'!A2" xr:uid="{9C16A3BC-2459-4D04-9BB3-51627005E9EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1710,14 +1781,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" customWidth="1"/>
-    <col min="3" max="23" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="23" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -1725,7 +1796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>

--- a/Doc/自定义控制协议/自主控制协议.xlsx
+++ b/Doc/自定义控制协议/自主控制协议.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GITHUB_PROJECT\ANO_Quadcopter_2021TI\Doc\自定义控制协议\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3139FCFF-7547-460D-9D82-EB3B44191399}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7D91E2-61ED-4111-AE77-F5FA1C76E843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="108">
   <si>
     <t>帧头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,6 +420,17 @@
   </si>
   <si>
     <t>请求PID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xa6</t>
+  </si>
+  <si>
+    <t>OpenMV数据返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回请求的色彩阈值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -571,6 +582,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -578,10 +592,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -866,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A40" sqref="A19:XFD40"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1046,26 +1060,26 @@
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15" t="s">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15" t="s">
+      <c r="H20" s="16"/>
+      <c r="I20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15" t="s">
+      <c r="J20" s="16"/>
+      <c r="K20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15" t="s">
+      <c r="L20" s="16"/>
+      <c r="M20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="15"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -1103,10 +1117,10 @@
       <c r="H22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="16"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1269,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE5C0F1-A13E-4A07-9820-2FCF0A9E63D4}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1528,10 +1542,10 @@
       <c r="J22" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="L22" s="17"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="18" t="s">
         <v>90</v>
       </c>
@@ -1603,58 +1617,88 @@
         <v>95</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" s="18"/>
+        <v>107</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C22" location="'0xa0'!A2" display="'0xa0'!A2" xr:uid="{9C16A3BC-2459-4D04-9BB3-51627005E9EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Doc/自定义控制协议/自主控制协议.xlsx
+++ b/Doc/自定义控制协议/自主控制协议.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\ANO_Quadcopter_2021TI\Doc\自定义控制协议\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GITHUB_PROJECT\ANO_Quadcopter_2021TI\Doc\自定义控制协议\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BEA6EA-1DD3-4318-8987-C299D2E125F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AE4AEE-2198-431E-8249-D908AFD65D9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="119">
   <si>
     <t>帧头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,6 +463,18 @@
   </si>
   <si>
     <t>z轴坐标 cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xa7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据中心发送到屏幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串口屏发送数据到数据中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -617,6 +629,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -624,13 +639,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -915,16 +930,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="20.75" style="1"/>
+    <col min="1" max="16384" width="20.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -947,7 +962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -955,13 +970,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
@@ -969,7 +984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -977,7 +992,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
@@ -985,7 +1000,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -993,7 +1008,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -1001,7 +1016,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -1009,7 +1024,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
@@ -1017,7 +1032,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -1025,7 +1040,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -1033,18 +1048,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -1085,7 +1100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -1095,28 +1110,28 @@
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16" t="s">
+      <c r="H20" s="17"/>
+      <c r="I20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16" t="s">
+      <c r="J20" s="17"/>
+      <c r="K20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16" t="s">
+      <c r="L20" s="17"/>
+      <c r="M20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="16"/>
-    </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +1145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -1152,47 +1167,47 @@
       <c r="H22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
@@ -1209,52 +1224,52 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>71</v>
       </c>
@@ -1265,42 +1280,42 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
     </row>
-    <row r="43" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" s="8" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="M20:N20"/>
@@ -1318,19 +1333,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE5C0F1-A13E-4A07-9820-2FCF0A9E63D4}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="30" width="30.75" style="13" customWidth="1"/>
-    <col min="31" max="16384" width="8.9140625" style="13"/>
+    <col min="1" max="30" width="30.77734375" style="13" customWidth="1"/>
+    <col min="31" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1374,7 +1389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -1384,28 +1399,28 @@
       <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="20"/>
+      <c r="M2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="18"/>
-    </row>
-    <row r="3" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -1419,7 +1434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
@@ -1441,47 +1456,47 @@
       <c r="H4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>37</v>
       </c>
@@ -1498,7 +1513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
@@ -1508,67 +1523,67 @@
       <c r="D13" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20" t="s">
+      <c r="H13" s="19"/>
+      <c r="I13" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20" t="s">
+      <c r="J13" s="19"/>
+      <c r="K13" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20" t="s">
+      <c r="L13" s="19"/>
+      <c r="M13" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20" t="s">
+      <c r="N13" s="19"/>
+      <c r="O13" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="P13" s="20"/>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>69</v>
       </c>
@@ -1576,7 +1591,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>71</v>
       </c>
@@ -1587,7 +1602,7 @@
         <v>92</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>77</v>
@@ -1607,20 +1622,20 @@
       <c r="J22" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="18" t="s">
+      <c r="L22" s="21"/>
+      <c r="M22" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18" t="s">
+      <c r="N22" s="20"/>
+      <c r="O22" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P22" s="18"/>
-    </row>
-    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P22" s="20"/>
+    </row>
+    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>88</v>
       </c>
@@ -1634,7 +1649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>93</v>
       </c>
@@ -1663,7 +1678,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>94</v>
       </c>
@@ -1677,7 +1692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>95</v>
       </c>
@@ -1706,7 +1721,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>96</v>
       </c>
@@ -1716,20 +1731,20 @@
       <c r="D27" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="18" t="s">
+      <c r="F27" s="21"/>
+      <c r="G27" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18" t="s">
+      <c r="H27" s="20"/>
+      <c r="I27" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>105</v>
       </c>
@@ -1743,14 +1758,55 @@
         <v>3</v>
       </c>
     </row>
+    <row r="29" spans="1:16" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="L29" s="21"/>
+      <c r="M29" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
+  <mergeCells count="21">
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="I27:J27"/>
@@ -1758,15 +1814,22 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="K13:L13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C22" location="'0xa0'!A2" display="'0xa0'!A2" xr:uid="{9C16A3BC-2459-4D04-9BB3-51627005E9EC}"/>
+    <hyperlink ref="C29" location="'0xa0'!A2" display="'0xa0'!A2" xr:uid="{544B6460-A6BB-472F-A60A-E32E90CF48AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1781,14 +1844,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="23" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="23" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -1796,7 +1859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>

--- a/Doc/自定义控制协议/自主控制协议.xlsx
+++ b/Doc/自定义控制协议/自主控制协议.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GITHUB_PROJECT\ANO_Quadcopter_2021TI\Doc\自定义控制协议\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\ANO_Quadcopter_2021TI\Doc\自定义控制协议\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AE4AEE-2198-431E-8249-D908AFD65D9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD04F308-2D43-4BDA-ABCC-B4D3692FFD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="136">
   <si>
     <t>帧头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,6 +475,66 @@
   </si>
   <si>
     <t>串口屏发送数据到数据中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-SLAM</t>
+  </si>
+  <si>
+    <t>T265的位姿数据</t>
+  </si>
+  <si>
+    <t>x轴速度 cm/s</t>
+  </si>
+  <si>
+    <t>y轴速度 cm/s</t>
+  </si>
+  <si>
+    <t>z轴速度 cm/s</t>
+  </si>
+  <si>
+    <t>x轴坐标 cm</t>
+  </si>
+  <si>
+    <t>y轴坐标 cm</t>
+  </si>
+  <si>
+    <t>z轴坐标 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六面校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗盘校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xa8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xa9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,13 +699,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -928,18 +988,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="20.77734375" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -962,21 +1022,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
@@ -984,7 +1047,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -992,7 +1055,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
@@ -1000,7 +1063,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -1008,7 +1071,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -1016,7 +1079,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -1024,7 +1087,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
@@ -1032,7 +1095,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -1040,7 +1103,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -1048,18 +1111,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="8" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -1100,7 +1163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -1131,7 +1194,7 @@
       </c>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1145,7 +1208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -1172,42 +1235,42 @@
       </c>
       <c r="J22" s="18"/>
     </row>
-    <row r="23" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
@@ -1224,52 +1287,82 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="P31" s="18"/>
+    </row>
+    <row r="32" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>71</v>
       </c>
@@ -1280,44 +1373,50 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
     </row>
-    <row r="43" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" s="8" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="E20:F20"/>
@@ -1333,19 +1432,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE5C0F1-A13E-4A07-9820-2FCF0A9E63D4}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="30" width="30.77734375" style="13" customWidth="1"/>
-    <col min="31" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="30" width="30.75" style="13" customWidth="1"/>
+    <col min="31" max="16384" width="8.9140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1389,7 +1488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -1420,7 +1519,7 @@
       </c>
       <c r="N2" s="20"/>
     </row>
-    <row r="3" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -1434,7 +1533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
@@ -1461,42 +1560,42 @@
       </c>
       <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>37</v>
       </c>
@@ -1513,7 +1612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
@@ -1523,67 +1622,67 @@
       <c r="D13" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19" t="s">
+      <c r="H13" s="21"/>
+      <c r="I13" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19" t="s">
+      <c r="J13" s="21"/>
+      <c r="K13" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19" t="s">
+      <c r="L13" s="21"/>
+      <c r="M13" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19" t="s">
+      <c r="N13" s="21"/>
+      <c r="O13" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="P13" s="19"/>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="21"/>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>69</v>
       </c>
@@ -1591,7 +1690,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>71</v>
       </c>
@@ -1622,10 +1721,10 @@
       <c r="J22" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="L22" s="21"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="20" t="s">
         <v>90</v>
       </c>
@@ -1635,7 +1734,7 @@
       </c>
       <c r="P22" s="20"/>
     </row>
-    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>88</v>
       </c>
@@ -1649,7 +1748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>93</v>
       </c>
@@ -1678,7 +1777,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>94</v>
       </c>
@@ -1692,7 +1791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>95</v>
       </c>
@@ -1721,7 +1820,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>96</v>
       </c>
@@ -1731,10 +1830,10 @@
       <c r="D27" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="20" t="s">
         <v>90</v>
       </c>
@@ -1744,7 +1843,7 @@
       </c>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>105</v>
       </c>
@@ -1758,7 +1857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>116</v>
       </c>
@@ -1789,10 +1888,10 @@
       <c r="J29" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="21"/>
+      <c r="L29" s="19"/>
       <c r="M29" s="20" t="s">
         <v>90</v>
       </c>
@@ -1802,21 +1901,64 @@
       </c>
       <c r="P29" s="20"/>
     </row>
+    <row r="30" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="M2:N2"/>
@@ -1825,6 +1967,19 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1844,14 +1999,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" customWidth="1"/>
-    <col min="3" max="23" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="23" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -1859,7 +2014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>

--- a/Doc/自定义控制协议/自主控制协议.xlsx
+++ b/Doc/自定义控制协议/自主控制协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\ANO_Quadcopter_2021TI\Doc\自定义控制协议\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD04F308-2D43-4BDA-ABCC-B4D3692FFD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EB1072-7644-433C-997F-653B027DD6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="137">
   <si>
     <t>帧头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -536,13 +536,16 @@
   <si>
     <t>0xab</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机头为x正，左侧为y正，天为z正</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +567,12 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -642,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -693,20 +702,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -990,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1173,26 +1183,26 @@
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17" t="s">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17" t="s">
+      <c r="H20" s="18"/>
+      <c r="I20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17" t="s">
+      <c r="J20" s="18"/>
+      <c r="K20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17" t="s">
+      <c r="L20" s="18"/>
+      <c r="M20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="17"/>
+      <c r="N20" s="18"/>
     </row>
     <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -1230,10 +1240,10 @@
       <c r="H22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="18"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -1294,33 +1304,36 @@
       <c r="B31" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="C31" s="22" t="s">
+        <v>136</v>
+      </c>
       <c r="D31" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18" t="s">
+      <c r="L31" s="17"/>
+      <c r="M31" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18" t="s">
+      <c r="N31" s="17"/>
+      <c r="O31" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="P31" s="18"/>
+      <c r="P31" s="17"/>
     </row>
     <row r="32" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
@@ -1411,18 +1424,18 @@
     <row r="54" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1434,7 +1447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE5C0F1-A13E-4A07-9820-2FCF0A9E63D4}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -1622,30 +1635,30 @@
       <c r="D13" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21" t="s">
+      <c r="H13" s="19"/>
+      <c r="I13" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21" t="s">
+      <c r="J13" s="19"/>
+      <c r="K13" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21" t="s">
+      <c r="L13" s="19"/>
+      <c r="M13" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21" t="s">
+      <c r="N13" s="19"/>
+      <c r="O13" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="P13" s="21"/>
+      <c r="P13" s="19"/>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
@@ -1721,10 +1734,10 @@
       <c r="J22" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="L22" s="19"/>
+      <c r="L22" s="21"/>
       <c r="M22" s="20" t="s">
         <v>90</v>
       </c>
@@ -1830,10 +1843,10 @@
       <c r="D27" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="20" t="s">
         <v>90</v>
       </c>
@@ -1888,10 +1901,10 @@
       <c r="J29" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="19"/>
+      <c r="L29" s="21"/>
       <c r="M29" s="20" t="s">
         <v>90</v>
       </c>
@@ -1959,6 +1972,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="M2:N2"/>
@@ -1967,19 +1993,6 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Doc/自定义控制协议/自主控制协议.xlsx
+++ b/Doc/自定义控制协议/自主控制协议.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\ANO_Quadcopter_2021TI\Doc\自定义控制协议\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EB1072-7644-433C-997F-653B027DD6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80572423-DDCE-44DC-AD69-4248AF65974F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6075" yWindow="2205" windowWidth="21645" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="140">
   <si>
     <t>帧头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,6 +539,18 @@
   </si>
   <si>
     <t>机头为x正，左侧为y正，天为z正</t>
+  </si>
+  <si>
+    <t>视觉功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能号 0:激光 1:LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -701,22 +713,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1000,16 +1012,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1043,13 +1055,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
@@ -1057,7 +1069,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -1065,7 +1077,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
@@ -1073,7 +1085,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
@@ -1081,7 +1093,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -1089,7 +1101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -1097,7 +1109,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
@@ -1105,7 +1117,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -1113,7 +1125,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -1121,18 +1133,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -1173,7 +1185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -1204,7 +1216,7 @@
       </c>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1218,7 +1230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -1240,47 +1252,47 @@
       <c r="H22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
@@ -1297,85 +1309,94 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="17" t="s">
         <v>136</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17" t="s">
+      <c r="F31" s="19"/>
+      <c r="G31" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17" t="s">
+      <c r="H31" s="19"/>
+      <c r="I31" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17" t="s">
+      <c r="J31" s="19"/>
+      <c r="K31" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17" t="s">
+      <c r="L31" s="19"/>
+      <c r="M31" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17" t="s">
+      <c r="N31" s="19"/>
+      <c r="O31" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="P31" s="17"/>
-    </row>
-    <row r="32" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P31" s="19"/>
+    </row>
+    <row r="32" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>71</v>
       </c>
@@ -1386,56 +1407,56 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
     </row>
-    <row r="43" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" s="8" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
     </row>
-    <row r="52" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1451,13 +1472,13 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="30" width="30.75" style="13" customWidth="1"/>
-    <col min="31" max="16384" width="8.9140625" style="13"/>
+    <col min="31" max="16384" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1501,7 +1522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
@@ -1511,28 +1532,28 @@
       <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="20"/>
-    </row>
-    <row r="3" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="21"/>
+    </row>
+    <row r="3" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
@@ -1546,7 +1567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
@@ -1568,47 +1589,47 @@
       <c r="H4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>37</v>
       </c>
@@ -1625,7 +1646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
@@ -1635,67 +1656,67 @@
       <c r="D13" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19" t="s">
+      <c r="H13" s="22"/>
+      <c r="I13" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19" t="s">
+      <c r="J13" s="22"/>
+      <c r="K13" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19" t="s">
+      <c r="L13" s="22"/>
+      <c r="M13" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19" t="s">
+      <c r="N13" s="22"/>
+      <c r="O13" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="P13" s="19"/>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>69</v>
       </c>
@@ -1703,7 +1724,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>71</v>
       </c>
@@ -1734,20 +1755,20 @@
       <c r="J22" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="L22" s="21"/>
-      <c r="M22" s="20" t="s">
+      <c r="L22" s="20"/>
+      <c r="M22" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20" t="s">
+      <c r="N22" s="21"/>
+      <c r="O22" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="P22" s="20"/>
-    </row>
-    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P22" s="21"/>
+    </row>
+    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>88</v>
       </c>
@@ -1761,7 +1782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>93</v>
       </c>
@@ -1790,7 +1811,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>94</v>
       </c>
@@ -1804,7 +1825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>95</v>
       </c>
@@ -1833,7 +1854,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>96</v>
       </c>
@@ -1843,20 +1864,20 @@
       <c r="D27" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="20" t="s">
+      <c r="F27" s="20"/>
+      <c r="G27" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20" t="s">
+      <c r="H27" s="21"/>
+      <c r="I27" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>105</v>
       </c>
@@ -1870,7 +1891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>116</v>
       </c>
@@ -1901,20 +1922,20 @@
       <c r="J29" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="21"/>
-      <c r="M29" s="20" t="s">
+      <c r="L29" s="20"/>
+      <c r="M29" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20" t="s">
+      <c r="N29" s="21"/>
+      <c r="O29" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="P29" s="20"/>
-    </row>
-    <row r="30" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P29" s="21"/>
+    </row>
+    <row r="30" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>132</v>
       </c>
@@ -1928,7 +1949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>133</v>
       </c>
@@ -1942,7 +1963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>134</v>
       </c>
@@ -1956,7 +1977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>135</v>
       </c>
@@ -1972,19 +1993,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="M2:N2"/>
@@ -1993,6 +2001,19 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2012,14 +2033,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="23" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -2027,7 +2048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>

--- a/Doc/自定义控制协议/自主控制协议.xlsx
+++ b/Doc/自定义控制协议/自主控制协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\ANO_Quadcopter_2021TI\Doc\自定义控制协议\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80572423-DDCE-44DC-AD69-4248AF65974F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700D1782-6C60-47DC-AC80-F7FD7942FA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="2205" windowWidth="21645" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="143">
   <si>
     <t>帧头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -545,11 +545,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>触发功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能号 0:激光 1:LED</t>
+    <t>颜色识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:白色 1:绿色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laser请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定点亮laser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:请求点灯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,19 +727,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1013,7 +1025,7 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1195,26 +1207,26 @@
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18" t="s">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18" t="s">
+      <c r="H20" s="19"/>
+      <c r="I20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18" t="s">
+      <c r="J20" s="19"/>
+      <c r="K20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18" t="s">
+      <c r="L20" s="19"/>
+      <c r="M20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="18"/>
+      <c r="N20" s="19"/>
     </row>
     <row r="21" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
@@ -1252,10 +1264,10 @@
       <c r="H22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="19"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
@@ -1322,30 +1334,30 @@
       <c r="D31" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19" t="s">
+      <c r="F31" s="18"/>
+      <c r="G31" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19" t="s">
+      <c r="H31" s="18"/>
+      <c r="I31" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19" t="s">
+      <c r="J31" s="18"/>
+      <c r="K31" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19" t="s">
+      <c r="L31" s="18"/>
+      <c r="M31" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19" t="s">
+      <c r="N31" s="18"/>
+      <c r="O31" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="P31" s="19"/>
+      <c r="P31" s="18"/>
     </row>
     <row r="32" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
@@ -1361,42 +1373,51 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>71</v>
       </c>
@@ -1407,28 +1428,28 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
     </row>
-    <row r="42" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
     </row>
-    <row r="43" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
     </row>
     <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1445,18 +1466,18 @@
     <row r="54" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="O31:P31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1656,30 +1677,30 @@
       <c r="D13" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22" t="s">
+      <c r="H13" s="20"/>
+      <c r="I13" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22" t="s">
+      <c r="J13" s="20"/>
+      <c r="K13" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22" t="s">
+      <c r="L13" s="20"/>
+      <c r="M13" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22" t="s">
+      <c r="N13" s="20"/>
+      <c r="O13" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="P13" s="22"/>
+      <c r="P13" s="20"/>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
@@ -1755,10 +1776,10 @@
       <c r="J22" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="L22" s="20"/>
+      <c r="L22" s="22"/>
       <c r="M22" s="21" t="s">
         <v>90</v>
       </c>
@@ -1864,10 +1885,10 @@
       <c r="D27" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="20"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="21" t="s">
         <v>90</v>
       </c>
@@ -1922,10 +1943,10 @@
       <c r="J29" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="20"/>
+      <c r="L29" s="22"/>
       <c r="M29" s="21" t="s">
         <v>90</v>
       </c>
@@ -1993,6 +2014,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="M2:N2"/>
@@ -2001,19 +2035,6 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
